--- a/Images/Results.xlsx
+++ b/Images/Results.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Country</t>
   </si>
@@ -677,76 +677,70 @@
     <t>All countries in Oceania</t>
   </si>
   <si>
-    <t>DensityPopulation</t>
+    <t>Intervals</t>
   </si>
   <si>
     <t>Below</t>
   </si>
   <si>
-    <t>&gt;= 10</t>
-  </si>
-  <si>
-    <t>&gt;= 20</t>
-  </si>
-  <si>
-    <t>&gt;= 50</t>
-  </si>
-  <si>
-    <t>&gt;= 100</t>
-  </si>
-  <si>
-    <t>&gt;= 200</t>
-  </si>
-  <si>
-    <t>&gt;= 500</t>
-  </si>
-  <si>
-    <t>&gt;= 1'000</t>
-  </si>
-  <si>
-    <t>&gt;= 2'000</t>
-  </si>
-  <si>
-    <t>&gt;= 5'000</t>
-  </si>
-  <si>
-    <t>&gt;= 10'000</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Fewer</t>
-  </si>
-  <si>
-    <t>&gt;= 1'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 2'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 5'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 10'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 20'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 50'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 100'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 200'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 500'000'000</t>
-  </si>
-  <si>
-    <t>&gt;= 1'000'000'000</t>
+    <t>&gt;=10</t>
+  </si>
+  <si>
+    <t>&gt;=20</t>
+  </si>
+  <si>
+    <t>&gt;=50</t>
+  </si>
+  <si>
+    <t>&gt;=100</t>
+  </si>
+  <si>
+    <t>&gt;=200</t>
+  </si>
+  <si>
+    <t>&gt;=500</t>
+  </si>
+  <si>
+    <t>&gt;=1'000</t>
+  </si>
+  <si>
+    <t>&gt;=2'000</t>
+  </si>
+  <si>
+    <t>&gt;=5'000</t>
+  </si>
+  <si>
+    <t>&gt;=10'000</t>
+  </si>
+  <si>
+    <t>&gt;=1'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=2'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=5'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=10'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=20'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=50'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=100'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=200'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=500'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=1'000'000'000</t>
   </si>
 </sst>
 </file>
@@ -5298,7 +5292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L12"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="0" showGridLines="1">
@@ -5320,12 +5314,11 @@
     <col customWidth="1" width="10.7109375" min="10" max="10"/>
     <col customWidth="1" width="10.7109375" min="11" max="11"/>
     <col customWidth="1" width="10.7109375" min="12" max="12"/>
-    <col customWidth="1" width="10.7109375" min="13" max="13"/>
-    <col customWidth="1" width="10.7109375" min="14" max="16384"/>
+    <col customWidth="1" width="10.7109375" min="13" max="16384"/>
   </cols>
   <sheetData>
     <!-- $Insert Data$ -->
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25" customHeight="1" ht="30">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25" customHeight="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -5362,13 +5355,10 @@
       <c r="L1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B2" s="9">
         <v>3</v>
@@ -5403,13 +5393,10 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -5444,13 +5431,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="15">
         <v>4</v>
@@ -5485,13 +5469,10 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -5526,13 +5507,10 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="14">
         <v>0</v>
@@ -5567,13 +5545,10 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
@@ -5608,13 +5583,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
@@ -5649,13 +5621,10 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
@@ -5690,13 +5659,10 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -5731,13 +5697,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -5772,13 +5735,10 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
@@ -5811,50 +5771,6 @@
         <v>0</v>
       </c>
       <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Images/Results.xlsx
+++ b/Images/Results.xlsx
@@ -701,46 +701,46 @@
     <t>&gt;=500</t>
   </si>
   <si>
-    <t>&gt;=1’000</t>
-  </si>
-  <si>
-    <t>&gt;=2’000</t>
-  </si>
-  <si>
-    <t>&gt;=5’000</t>
-  </si>
-  <si>
-    <t>&gt;=10’000</t>
-  </si>
-  <si>
-    <t>&gt;=1’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=2’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=5’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=10’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=20’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=50’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=100’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=200’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=500’000’000</t>
-  </si>
-  <si>
-    <t>&gt;=1’000’000’000</t>
+    <t>&gt;=1'000</t>
+  </si>
+  <si>
+    <t>&gt;=2'000</t>
+  </si>
+  <si>
+    <t>&gt;=5'000</t>
+  </si>
+  <si>
+    <t>&gt;=10'000</t>
+  </si>
+  <si>
+    <t>&gt;=1'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=2'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=5'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=10'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=20'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=50'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=100'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=200'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=500'000'000</t>
+  </si>
+  <si>
+    <t>&gt;=1'000'000'000</t>
   </si>
 </sst>
 </file>

--- a/Images/Results.xlsx
+++ b/Images/Results.xlsx
@@ -764,7 +764,7 @@
     </font>
   </fonts>
   <!-- $Insert Fills$ -->
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,7 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBFFEB"/>
+        <fgColor rgb="FFF5FFF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFFFAF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,13 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7DFF7D"/>
+        <fgColor rgb="FF87FF87"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5FFF5"/>
+        <fgColor rgb="FFEBFFEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,25 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5FFA5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFAF"/>
+        <fgColor rgb="FF9BFF9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC3FFC3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91FF91"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <!-- $Insert all Styles$ -->
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" borderId="0" fillId="0" fontId="1" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
@@ -887,7 +881,6 @@
     <xf numFmtId="0" borderId="0" fillId="10" fontId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" borderId="0" fillId="11" fontId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" borderId="0" fillId="12" fontId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" borderId="0" fillId="13" fontId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1257,10 +1250,10 @@
         <v>41454761</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.0086316545</v>
+        <v>0.0268835446</v>
       </c>
       <c r="F2" s="7">
-        <v>63.0145807461</v>
+        <v>65.3143829631</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,10 +1290,10 @@
         <v>46164219</v>
       </c>
       <c r="E4" s="6">
-        <v>-0.0281563252</v>
+        <v>0.0177825745</v>
       </c>
       <c r="F4" s="7">
-        <v>18.8517559214</v>
+        <v>19.7334638821</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,10 +1310,10 @@
         <v>80.856</v>
       </c>
       <c r="E5" s="6">
-        <v>0.9989893</v>
+        <v>0.9991016</v>
       </c>
       <c r="F5" s="7">
-        <v>170.9401709402</v>
+        <v>192.3076923077</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,10 +1330,10 @@
         <v>36749906</v>
       </c>
       <c r="E6" s="6">
-        <v>-0.0323007303</v>
+        <v>0.0303454881</v>
       </c>
       <c r="F6" s="7">
-        <v>28.5553862196</v>
+        <v>30.4002566776</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,10 +1370,10 @@
         <v>45538401</v>
       </c>
       <c r="E8" s="6">
-        <v>0.0143203247</v>
+        <v>0.0331549682</v>
       </c>
       <c r="F8" s="7">
-        <v>16.6163141994</v>
+        <v>16.9400086319</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,10 +1410,10 @@
         <v>26451124</v>
       </c>
       <c r="E10" s="6">
-        <v>-0.0252373643</v>
+        <v>0.031094359</v>
       </c>
       <c r="F10" s="7">
-        <v>3.332808007</v>
+        <v>3.5265759144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,10 +1430,10 @@
         <v>9130429</v>
       </c>
       <c r="E11" s="6">
-        <v>-0.0144921111</v>
+        <v>0.0075620652</v>
       </c>
       <c r="F11" s="7">
-        <v>107.3076510355</v>
+        <v>109.692265503</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,10 +1490,10 @@
         <v>1569666</v>
       </c>
       <c r="E14" s="6">
-        <v>-0.046444</v>
+        <v>0.01895875</v>
       </c>
       <c r="F14" s="7">
-        <v>1973.6842105263</v>
+        <v>2105.2631578947</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,10 +1510,10 @@
         <v>171466990</v>
       </c>
       <c r="E15" s="6">
-        <v>-0.001559521</v>
+        <v>0.012286924</v>
       </c>
       <c r="F15" s="7">
-        <v>1188.9054014639</v>
+        <v>1205.5722996153</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,10 +1550,10 @@
         <v>9115680</v>
       </c>
       <c r="E17" s="6">
-        <v>0.0091652174</v>
+        <v>-0.0017230769</v>
       </c>
       <c r="F17" s="7">
-        <v>44.3159922929</v>
+        <v>43.8342967245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,10 +1570,10 @@
         <v>11712893</v>
       </c>
       <c r="E18" s="6">
-        <v>-0.0097321552</v>
+        <v>0.0073819492</v>
       </c>
       <c r="F18" s="7">
-        <v>379.9790356394</v>
+        <v>386.5303983229</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,10 +1610,10 @@
         <v>14111034</v>
       </c>
       <c r="E20" s="6">
-        <v>-0.0530622388</v>
+        <v>-0.0225386957</v>
       </c>
       <c r="F20" s="7">
-        <v>118.9820816537</v>
+        <v>122.5337855836</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,10 +1650,10 @@
         <v>12244159</v>
       </c>
       <c r="E22" s="6">
-        <v>-0.0036195902</v>
+        <v>0.0045399187</v>
       </c>
       <c r="F22" s="7">
-        <v>11.1052348439</v>
+        <v>11.196261359</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,10 +1690,10 @@
         <v>2480244</v>
       </c>
       <c r="E24" s="6">
-        <v>0.04606</v>
+        <v>-0.033435</v>
       </c>
       <c r="F24" s="7">
-        <v>4.4694273976</v>
+        <v>4.1256252901</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,10 +1710,10 @@
         <v>211140729</v>
       </c>
       <c r="E25" s="6">
-        <v>0.0170357123</v>
+        <v>0.0040531651</v>
       </c>
       <c r="F25" s="7">
-        <v>25.2264360366</v>
+        <v>24.8975998127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,10 +1730,10 @@
         <v>458.949</v>
       </c>
       <c r="E26" s="6">
-        <v>0.9988526275</v>
+        <v>0.999082102</v>
       </c>
       <c r="F26" s="7">
-        <v>69.3842150911</v>
+        <v>86.7302688638</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,10 +1750,10 @@
         <v>6795803</v>
       </c>
       <c r="E27" s="6">
-        <v>0.0006172059</v>
+        <v>-0.0618442187</v>
       </c>
       <c r="F27" s="7">
-        <v>61.328114431</v>
+        <v>57.720578288</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,10 +1770,10 @@
         <v>23025776</v>
       </c>
       <c r="E28" s="6">
-        <v>-0.0143513656</v>
+        <v>0.0159924786</v>
       </c>
       <c r="F28" s="7">
-        <v>82.7862873815</v>
+        <v>85.3391684902</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,10 +1790,10 @@
         <v>13689450</v>
       </c>
       <c r="E29" s="6">
-        <v>-0.0611976744</v>
+        <v>0.0221821429</v>
       </c>
       <c r="F29" s="7">
-        <v>463.5285662954</v>
+        <v>503.054257995</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,10 +1810,10 @@
         <v>17423880</v>
       </c>
       <c r="E30" s="6">
-        <v>-0.0371357143</v>
+        <v>-0.0496313253</v>
       </c>
       <c r="F30" s="7">
-        <v>92.7997348579</v>
+        <v>91.6949761096</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,10 +1830,10 @@
         <v>28372687</v>
       </c>
       <c r="E31" s="6">
-        <v>-0.0169421864</v>
+        <v>0.0148372569</v>
       </c>
       <c r="F31" s="7">
-        <v>58.6824835941</v>
+        <v>60.5754669359</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,10 +1850,10 @@
         <v>39299105</v>
       </c>
       <c r="E32" s="6">
-        <v>-0.0128635309</v>
+        <v>0.050746256</v>
       </c>
       <c r="F32" s="7">
-        <v>3.8859571723</v>
+        <v>4.1463563643</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,10 +1870,10 @@
         <v>522.331</v>
       </c>
       <c r="E33" s="6">
-        <v>0.9991294483</v>
+        <v>0.998955338</v>
       </c>
       <c r="F33" s="7">
-        <v>148.7726258368</v>
+        <v>123.9771881974</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,10 +1890,10 @@
         <v>5152421</v>
       </c>
       <c r="E34" s="6">
-        <v>0.0799248214</v>
+        <v>0.1949342187</v>
       </c>
       <c r="F34" s="7">
-        <v>8.988994902</v>
+        <v>10.2731370308</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,10 +1910,10 @@
         <v>19319064</v>
       </c>
       <c r="E35" s="6">
-        <v>-0.0914725424</v>
+        <v>-0.0331050267</v>
       </c>
       <c r="F35" s="7">
-        <v>13.785046729</v>
+        <v>14.5638629283</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,10 +1930,10 @@
         <v>19658835</v>
       </c>
       <c r="E36" s="6">
-        <v>0.0071295455</v>
+        <v>0.0219485075</v>
       </c>
       <c r="F36" s="7">
-        <v>26.1869430315</v>
+        <v>26.5837148956</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,10 +1970,10 @@
         <v>52321152</v>
       </c>
       <c r="E38" s="6">
-        <v>-0.0656039104</v>
+        <v>0.0109423062</v>
       </c>
       <c r="F38" s="7">
-        <v>43.1113959839</v>
+        <v>46.447919502</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,10 +1990,10 @@
         <v>850.387</v>
       </c>
       <c r="E39" s="6">
-        <v>0.9989370162</v>
+        <v>0.9990551256</v>
       </c>
       <c r="F39" s="7">
-        <v>357.9418344519</v>
+        <v>402.6845637584</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,10 +2010,10 @@
         <v>6182885</v>
       </c>
       <c r="E40" s="6">
-        <v>-0.0304808333</v>
+        <v>-0.0135877049</v>
       </c>
       <c r="F40" s="7">
-        <v>17.5438596491</v>
+        <v>17.8362573099</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,10 +2030,10 @@
         <v>105789731</v>
       </c>
       <c r="E41" s="6">
-        <v>-0.0685831414</v>
+        <v>0.0321159103</v>
       </c>
       <c r="F41" s="7">
-        <v>42.2200406165</v>
+        <v>46.6126307009</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,10 +2050,10 @@
         <v>5105525</v>
       </c>
       <c r="E42" s="6">
-        <v>0.0181682692</v>
+        <v>0.0366933962</v>
       </c>
       <c r="F42" s="7">
-        <v>101.7612524462</v>
+        <v>103.7181996086</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,10 +2070,10 @@
         <v>3896023</v>
       </c>
       <c r="E43" s="6">
-        <v>-0.0252692105</v>
+        <v>0.0010197436</v>
       </c>
       <c r="F43" s="7">
-        <v>67.1449270241</v>
+        <v>68.9118987879</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,10 +2090,10 @@
         <v>11019931</v>
       </c>
       <c r="E44" s="6">
-        <v>0.0072134234</v>
+        <v>-0.0018119091</v>
       </c>
       <c r="F44" s="7">
-        <v>100.126285405</v>
+        <v>99.2242467978</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,10 +2110,10 @@
         <v>1344976</v>
       </c>
       <c r="E45" s="6">
-        <v>-0.0345969231</v>
+        <v>0.0393028571</v>
       </c>
       <c r="F45" s="7">
-        <v>140.525348611</v>
+        <v>151.3349908118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,10 +2130,10 @@
         <v>10809716</v>
       </c>
       <c r="E46" s="6">
-        <v>-0.0294967619</v>
+        <v>0.0172985455</v>
       </c>
       <c r="F46" s="7">
-        <v>133.1355319715</v>
+        <v>139.4753192083</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,10 +2170,10 @@
         <v>1152944</v>
       </c>
       <c r="E48" s="6">
-        <v>-0.0481309091</v>
+        <v>-0.152944</v>
       </c>
       <c r="F48" s="7">
-        <v>47.4137931034</v>
+        <v>43.1034482759</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,10 +2210,10 @@
         <v>11331265</v>
       </c>
       <c r="E50" s="6">
-        <v>-0.0117200893</v>
+        <v>-0.0491912037</v>
       </c>
       <c r="F50" s="7">
-        <v>230.1212245737</v>
+        <v>221.9026094103</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,10 +2230,10 @@
         <v>17980083</v>
       </c>
       <c r="E51" s="6">
-        <v>0.0011065</v>
+        <v>0.0174818033</v>
       </c>
       <c r="F51" s="7">
-        <v>63.4784049993</v>
+        <v>64.5363784159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,10 +2250,10 @@
         <v>114535772</v>
       </c>
       <c r="E52" s="6">
-        <v>-0.1066258164</v>
+        <v>-0.0774766886</v>
       </c>
       <c r="F52" s="7">
-        <v>103.3501422937</v>
+        <v>106.1460881722</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,10 +2290,10 @@
         <v>1847549</v>
       </c>
       <c r="E54" s="6">
-        <v>-0.0867935294</v>
+        <v>0.0276057895</v>
       </c>
       <c r="F54" s="7">
-        <v>60.6039000392</v>
+        <v>67.7337706321</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,10 +2310,10 @@
         <v>3470390</v>
       </c>
       <c r="E55" s="6">
-        <v>0.0620567568</v>
+        <v>0.00846</v>
       </c>
       <c r="F55" s="7">
-        <v>31.462585034</v>
+        <v>29.7619047619</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,10 +2330,10 @@
         <v>1367196</v>
       </c>
       <c r="E56" s="6">
-        <v>-0.0516892308</v>
+        <v>0.0234314286</v>
       </c>
       <c r="F56" s="7">
-        <v>28.7432563898</v>
+        <v>30.9542761121</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,10 +2370,10 @@
         <v>128691692</v>
       </c>
       <c r="E58" s="6">
-        <v>-0.0428824311</v>
+        <v>0.0077741557</v>
       </c>
       <c r="F58" s="7">
-        <v>111.7449968306</v>
+        <v>117.4499683057</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,10 +2430,10 @@
         <v>66438822</v>
       </c>
       <c r="E61" s="6">
-        <v>-0.009708541</v>
+        <v>-0.0020938462</v>
       </c>
       <c r="F61" s="7">
-        <v>119.3109700816</v>
+        <v>120.2175883953</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,10 +2450,10 @@
         <v>2484789</v>
       </c>
       <c r="E62" s="6">
-        <v>-0.03532875</v>
+        <v>0.0060844</v>
       </c>
       <c r="F62" s="7">
-        <v>8.9663649236</v>
+        <v>9.3399634621</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2477,10 +2470,10 @@
         <v>2697845</v>
       </c>
       <c r="E63" s="6">
-        <v>0.0007981481</v>
+        <v>0.0364839286</v>
       </c>
       <c r="F63" s="7">
-        <v>239.0438247012</v>
+        <v>247.8972996901</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,10 +2510,10 @@
         <v>84548231</v>
       </c>
       <c r="E65" s="6">
-        <v>-0.0149847659</v>
+        <v>0.0041433333</v>
       </c>
       <c r="F65" s="7">
-        <v>233.3189551344</v>
+        <v>237.8004716796</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,10 +2530,10 @@
         <v>33787914</v>
       </c>
       <c r="E66" s="6">
-        <v>-0.0085944478</v>
+        <v>-0.0332695413</v>
       </c>
       <c r="F66" s="7">
-        <v>140.4417837364</v>
+        <v>137.087950095</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,10 +2550,10 @@
         <v>10242908</v>
       </c>
       <c r="E67" s="6">
-        <v>0.0336879245</v>
+        <v>-0.0346371717</v>
       </c>
       <c r="F67" s="7">
-        <v>80.3291981479</v>
+        <v>75.0244397796</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2617,10 +2610,10 @@
         <v>14405465</v>
       </c>
       <c r="E70" s="6">
-        <v>-0.0363643885</v>
+        <v>-0.0289617857</v>
       </c>
       <c r="F70" s="7">
-        <v>56.536930004</v>
+        <v>56.9436705077</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,10 +2630,10 @@
         <v>2153339</v>
       </c>
       <c r="E71" s="6">
-        <v>-0.0253995238</v>
+        <v>0.0212095455</v>
       </c>
       <c r="F71" s="7">
-        <v>58.1314878893</v>
+        <v>60.8996539792</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2677,10 +2670,10 @@
         <v>11637398</v>
       </c>
       <c r="E73" s="6">
-        <v>-0.0032239655</v>
+        <v>0.0137798305</v>
       </c>
       <c r="F73" s="7">
-        <v>418.018018018</v>
+        <v>425.2252252252</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2697,10 +2690,10 @@
         <v>10644851</v>
       </c>
       <c r="E74" s="6">
-        <v>-0.1088386458</v>
+        <v>-0.0752374747</v>
       </c>
       <c r="F74" s="7">
-        <v>85.6454634669</v>
+        <v>88.3218842002</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2717,10 +2710,10 @@
         <v>9686463</v>
       </c>
       <c r="E75" s="6">
-        <v>0.001395567</v>
+        <v>-0.0090065625</v>
       </c>
       <c r="F75" s="7">
-        <v>104.2696822462</v>
+        <v>103.1947370684</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,10 +2750,10 @@
         <v>1438069596</v>
       </c>
       <c r="E77" s="6">
-        <v>-0.0147259356</v>
+        <v>0.0025181411</v>
       </c>
       <c r="F77" s="7">
-        <v>431.1185323474</v>
+        <v>438.5715411271</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,10 +2770,10 @@
         <v>281190067</v>
       </c>
       <c r="E78" s="6">
-        <v>-0.0206536007</v>
+        <v>0.001455728</v>
       </c>
       <c r="F78" s="7">
-        <v>144.6521496465</v>
+        <v>147.8549740125</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,10 +2790,10 @@
         <v>90608707</v>
       </c>
       <c r="E79" s="6">
-        <v>-0.0226716366</v>
+        <v>0.010821976</v>
       </c>
       <c r="F79" s="7">
-        <v>53.7557752572</v>
+        <v>55.5759482343</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,10 +2810,10 @@
         <v>45074049</v>
       </c>
       <c r="E80" s="6">
-        <v>-0.0128999775</v>
+        <v>-0.0151812838</v>
       </c>
       <c r="F80" s="7">
-        <v>101.524695597</v>
+        <v>101.2965502137</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2837,10 +2830,10 @@
         <v>5196630</v>
       </c>
       <c r="E81" s="6">
-        <v>-0.0189470588</v>
+        <v>0.0551581818</v>
       </c>
       <c r="F81" s="7">
-        <v>72.5741038521</v>
+        <v>78.2661904288</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,10 +2850,10 @@
         <v>9256314</v>
       </c>
       <c r="E82" s="6">
-        <v>0.0256511579</v>
+        <v>0.0650187879</v>
       </c>
       <c r="F82" s="7">
-        <v>424.4861483467</v>
+        <v>442.3592493298</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,10 +2870,10 @@
         <v>59499453</v>
       </c>
       <c r="E83" s="6">
-        <v>-0.0101774703</v>
+        <v>-0.0084653051</v>
       </c>
       <c r="F83" s="7">
-        <v>195.4602774275</v>
+        <v>195.7921284927</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,10 +2890,10 @@
         <v>31165654</v>
       </c>
       <c r="E84" s="6">
-        <v>-0.1051650355</v>
+        <v>0.0106141587</v>
       </c>
       <c r="F84" s="7">
-        <v>87.4518937056</v>
+        <v>97.6856259478</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,10 +2910,10 @@
         <v>2839786</v>
       </c>
       <c r="E85" s="6">
-        <v>-0.0142092857</v>
+        <v>-0.0517725926</v>
       </c>
       <c r="F85" s="7">
-        <v>254.753889546</v>
+        <v>245.6555363479</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,10 +2930,10 @@
         <v>124370947</v>
       </c>
       <c r="E86" s="6">
-        <v>0.0042358127</v>
+        <v>-0.0046118498</v>
       </c>
       <c r="F86" s="7">
-        <v>330.4975986664</v>
+        <v>327.5868912322</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,10 +2950,10 @@
         <v>11439213</v>
       </c>
       <c r="E87" s="6">
-        <v>-0.0213583036</v>
+        <v>0.0305751695</v>
       </c>
       <c r="F87" s="7">
-        <v>125.360972443</v>
+        <v>132.0767388238</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2977,10 +2970,10 @@
         <v>20330104</v>
       </c>
       <c r="E88" s="6">
-        <v>-0.0588595833</v>
+        <v>-0.0064407921</v>
       </c>
       <c r="F88" s="7">
-        <v>7.0461301332</v>
+        <v>7.4131160777</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,10 +2990,10 @@
         <v>55339003</v>
       </c>
       <c r="E89" s="6">
-        <v>-0.0247963519</v>
+        <v>-0.0520723004</v>
       </c>
       <c r="F89" s="7">
-        <v>93.0445735199</v>
+        <v>90.632306799</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,10 +3030,10 @@
         <v>26418204</v>
       </c>
       <c r="E91" s="6">
-        <v>-0.0121917241</v>
+        <v>-0.0044944487</v>
       </c>
       <c r="F91" s="7">
-        <v>216.5292272976</v>
+        <v>218.188455093</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,10 +3050,10 @@
         <v>51748739</v>
       </c>
       <c r="E92" s="6">
-        <v>-0.0028825388</v>
+        <v>0.0009895946</v>
       </c>
       <c r="F92" s="7">
-        <v>517.448856799</v>
+        <v>519.4544725231</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3077,10 +3070,10 @@
         <v>1700031</v>
       </c>
       <c r="E93" s="6">
-        <v>0.0555383333</v>
+        <v>-0.0000182353</v>
       </c>
       <c r="F93" s="7">
-        <v>165.334802976</v>
+        <v>156.149536144</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,10 +3090,10 @@
         <v>4838782</v>
       </c>
       <c r="E94" s="6">
-        <v>-0.1801907317</v>
+        <v>0.0512192157</v>
       </c>
       <c r="F94" s="7">
-        <v>230.1043888203</v>
+        <v>286.2274104838</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,10 +3110,10 @@
         <v>7073516</v>
       </c>
       <c r="E95" s="6">
-        <v>-0.0402229412</v>
+        <v>0.0175672222</v>
       </c>
       <c r="F95" s="7">
-        <v>34.0083320414</v>
+        <v>36.0088221614</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3137,10 +3130,10 @@
         <v>7664993</v>
       </c>
       <c r="E96" s="6">
-        <v>-0.0219990667</v>
+        <v>0.0045463636</v>
       </c>
       <c r="F96" s="7">
-        <v>31.6722972973</v>
+        <v>32.5168918919</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,10 +3170,10 @@
         <v>5733493</v>
       </c>
       <c r="E98" s="6">
-        <v>-0.0424532727</v>
+        <v>-0.1025948077</v>
       </c>
       <c r="F98" s="7">
-        <v>528.8461538462</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,10 +3210,10 @@
         <v>5493031</v>
       </c>
       <c r="E100" s="6">
-        <v>-0.0364209434</v>
+        <v>-0.017227963</v>
       </c>
       <c r="F100" s="7">
-        <v>47.5895446668</v>
+        <v>48.4874606039</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,10 +3230,10 @@
         <v>7305659</v>
       </c>
       <c r="E101" s="6">
-        <v>-0.0743616176</v>
+        <v>0.0127487838</v>
       </c>
       <c r="F101" s="7">
-        <v>3.8646464417</v>
+        <v>4.2056446571</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,10 +3270,10 @@
         <v>2854099</v>
       </c>
       <c r="E103" s="6">
-        <v>-0.0193210714</v>
+        <v>0.015827931</v>
       </c>
       <c r="F103" s="7">
-        <v>42.8790199081</v>
+        <v>44.4104134763</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,10 +3310,10 @@
         <v>31195932</v>
       </c>
       <c r="E105" s="6">
-        <v>-0.0539166216</v>
+        <v>-0.0128549351</v>
       </c>
       <c r="F105" s="7">
-        <v>50.422372543</v>
+        <v>52.4665227812</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,10 +3330,10 @@
         <v>21104482</v>
       </c>
       <c r="E106" s="6">
-        <v>-0.0345334314</v>
+        <v>-0.0396296552</v>
       </c>
       <c r="F106" s="7">
-        <v>172.1751460113</v>
+        <v>171.3311501975</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,10 +3350,10 @@
         <v>35126298</v>
       </c>
       <c r="E107" s="6">
-        <v>-0.0741987156</v>
+        <v>-0.0270847368</v>
       </c>
       <c r="F107" s="7">
-        <v>99.13687255</v>
+        <v>103.684435511</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,10 +3390,10 @@
         <v>23769127</v>
       </c>
       <c r="E109" s="6">
-        <v>-0.0517312832</v>
+        <v>-0.0379531441</v>
       </c>
       <c r="F109" s="7">
-        <v>18.2229848282</v>
+        <v>18.4648828568</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,10 +3410,10 @@
         <v>532.956</v>
       </c>
       <c r="E110" s="6">
-        <v>0.998934088</v>
+        <v>0.99911174</v>
       </c>
       <c r="F110" s="7">
-        <v>1582.2784810127</v>
+        <v>1898.7341772152</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,10 +3450,10 @@
         <v>5022441</v>
       </c>
       <c r="E112" s="6">
-        <v>-0.0686044681</v>
+        <v>-0.091835</v>
       </c>
       <c r="F112" s="7">
-        <v>4.5600077617</v>
+        <v>4.46298632</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,10 +3490,10 @@
         <v>129739759</v>
       </c>
       <c r="E114" s="6">
-        <v>-0.0175667373</v>
+        <v>-0.0026256491</v>
       </c>
       <c r="F114" s="7">
-        <v>64.90614063</v>
+        <v>65.8733693923</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,10 +3610,10 @@
         <v>37712505</v>
       </c>
       <c r="E120" s="6">
-        <v>-0.0275886921</v>
+        <v>-0.0083557487</v>
       </c>
       <c r="F120" s="7">
-        <v>82.1856455044</v>
+        <v>83.7532191244</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,10 +3630,10 @@
         <v>33635160</v>
       </c>
       <c r="E121" s="6">
-        <v>-0.0192472727</v>
+        <v>-0.0131072289</v>
       </c>
       <c r="F121" s="7">
-        <v>41.281993545</v>
+        <v>41.5321874453</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,10 +3650,10 @@
         <v>54133798</v>
       </c>
       <c r="E122" s="6">
-        <v>0.0012214391</v>
+        <v>0.0585426435</v>
       </c>
       <c r="F122" s="7">
-        <v>80.1090192114</v>
+        <v>84.9865056209</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3677,10 +3670,10 @@
         <v>2963095</v>
       </c>
       <c r="E123" s="6">
-        <v>-0.1396519231</v>
+        <v>-0.0582482143</v>
       </c>
       <c r="F123" s="7">
-        <v>3.1542220475</v>
+        <v>3.3968545127</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,10 +3710,10 @@
         <v>29964614</v>
       </c>
       <c r="E125" s="6">
-        <v>0.0302713916</v>
+        <v>0.0011795333</v>
       </c>
       <c r="F125" s="7">
-        <v>209.9455772145</v>
+        <v>203.8306574898</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3737,10 +3730,10 @@
         <v>18092524</v>
       </c>
       <c r="E126" s="6">
-        <v>-0.0221764972</v>
+        <v>-0.0051402222</v>
       </c>
       <c r="F126" s="7">
-        <v>426.0645596129</v>
+        <v>433.2859928267</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,10 +3750,10 @@
         <v>5172836</v>
       </c>
       <c r="E127" s="6">
-        <v>-0.0142815686</v>
+        <v>0.0420674074</v>
       </c>
       <c r="F127" s="7">
-        <v>19.0504650555</v>
+        <v>20.171080647</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,10 +3770,10 @@
         <v>6823613</v>
       </c>
       <c r="E128" s="6">
-        <v>-0.0184497015</v>
+        <v>0.0110705797</v>
       </c>
       <c r="F128" s="7">
-        <v>51.2506693184</v>
+        <v>52.7805400444</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,10 +3790,10 @@
         <v>26159867</v>
       </c>
       <c r="E129" s="6">
-        <v>0.0015317939</v>
+        <v>0.005328251</v>
       </c>
       <c r="F129" s="7">
-        <v>20.6787687451</v>
+        <v>20.7576953433</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,10 +3810,10 @@
         <v>227882945</v>
       </c>
       <c r="E130" s="6">
-        <v>-0.04294254</v>
+        <v>-0.0003641133</v>
       </c>
       <c r="F130" s="7">
-        <v>236.5312502706</v>
+        <v>246.5987130968</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,10 +3850,10 @@
         <v>5519167</v>
       </c>
       <c r="E132" s="6">
-        <v>-0.022067963</v>
+        <v>0.0144344643</v>
       </c>
       <c r="F132" s="7">
-        <v>16.6768580799</v>
+        <v>17.2945194903</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,10 +3870,10 @@
         <v>5049269</v>
       </c>
       <c r="E133" s="6">
-        <v>-0.0976671739</v>
+        <v>0.0289867308</v>
       </c>
       <c r="F133" s="7">
-        <v>14.8626817447</v>
+        <v>16.8012924071</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,10 +3890,10 @@
         <v>247504495</v>
       </c>
       <c r="E134" s="6">
-        <v>-0.0496373834</v>
+        <v>-0.0164455647</v>
       </c>
       <c r="F134" s="7">
-        <v>296.1958057769</v>
+        <v>305.8680182642</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3957,10 +3950,10 @@
         <v>4458759</v>
       </c>
       <c r="E137" s="6">
-        <v>-0.0133543182</v>
+        <v>0.0091646667</v>
       </c>
       <c r="F137" s="7">
-        <v>58.3399628746</v>
+        <v>59.6658711217</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,10 +3970,10 @@
         <v>10389635</v>
       </c>
       <c r="E138" s="6">
-        <v>-0.1171650538</v>
+        <v>-0.0710963918</v>
       </c>
       <c r="F138" s="7">
-        <v>20.0933367903</v>
+        <v>20.9575663296</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,10 +3990,10 @@
         <v>6844146</v>
       </c>
       <c r="E139" s="6">
-        <v>-0.0064920588</v>
+        <v>0.0080947826</v>
       </c>
       <c r="F139" s="7">
-        <v>16.7178034773</v>
+        <v>16.9636535284</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,10 +4010,10 @@
         <v>33845617</v>
       </c>
       <c r="E140" s="6">
-        <v>-0.0133418263</v>
+        <v>0.0045406765</v>
       </c>
       <c r="F140" s="7">
-        <v>25.9878495132</v>
+        <v>26.4546971093</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4037,10 +4030,10 @@
         <v>114891199</v>
       </c>
       <c r="E141" s="6">
-        <v>0.0061314965</v>
+        <v>-0.0042936976</v>
       </c>
       <c r="F141" s="7">
-        <v>386.6220735786</v>
+        <v>382.6086956522</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,10 +4050,10 @@
         <v>38762844</v>
       </c>
       <c r="E142" s="6">
-        <v>-0.0200748421</v>
+        <v>-0.0309267021</v>
       </c>
       <c r="F142" s="7">
-        <v>121.5280553912</v>
+        <v>120.2488127029</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4077,10 +4070,10 @@
         <v>10430738</v>
       </c>
       <c r="E143" s="6">
-        <v>-0.0126930097</v>
+        <v>0.0251646729</v>
       </c>
       <c r="F143" s="7">
-        <v>111.8471060919</v>
+        <v>116.1906830275</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,10 +4090,10 @@
         <v>2979082</v>
       </c>
       <c r="E144" s="6">
-        <v>-0.1033637037</v>
+        <v>0.069036875</v>
       </c>
       <c r="F144" s="7">
-        <v>233.0398757121</v>
+        <v>276.1954082513</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4117,10 +4110,10 @@
         <v>19118479</v>
       </c>
       <c r="E145" s="6">
-        <v>-0.0062357368</v>
+        <v>-0.0009674869</v>
       </c>
       <c r="F145" s="7">
-        <v>79.7009954235</v>
+        <v>80.1204743468</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,10 +4130,10 @@
         <v>145440500</v>
       </c>
       <c r="E146" s="6">
-        <v>-0.0079036729</v>
+        <v>0.0038321918</v>
       </c>
       <c r="F146" s="7">
-        <v>8.4394641274</v>
+        <v>8.5388895537</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,10 +4250,10 @@
         <v>33.733</v>
       </c>
       <c r="E152" s="6">
-        <v>0.9988755667</v>
+        <v>0.999156675</v>
       </c>
       <c r="F152" s="7">
-        <v>491.8032786885</v>
+        <v>655.737704918</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,10 +4270,10 @@
         <v>32264292</v>
       </c>
       <c r="E153" s="6">
-        <v>0.1208639782</v>
+        <v>0.0807894017</v>
       </c>
       <c r="F153" s="7">
-        <v>17.0722290191</v>
+        <v>16.3279356558</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4297,10 +4290,10 @@
         <v>18077573</v>
       </c>
       <c r="E154" s="6">
-        <v>-0.0099202793</v>
+        <v>0.0228338919</v>
       </c>
       <c r="F154" s="7">
-        <v>90.9913481969</v>
+        <v>94.041337522</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,10 +4310,10 @@
         <v>6773201</v>
       </c>
       <c r="E155" s="6">
-        <v>0.0039410294</v>
+        <v>-0.0262425758</v>
       </c>
       <c r="F155" s="7">
-        <v>87.7713813667</v>
+        <v>85.18987015</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4357,10 +4350,10 @@
         <v>8460512</v>
       </c>
       <c r="E157" s="6">
-        <v>0.0275273563</v>
+        <v>0.0162195349</v>
       </c>
       <c r="F157" s="7">
-        <v>121.2712573181</v>
+        <v>119.8773348202</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,10 +4370,10 @@
         <v>5789090</v>
       </c>
       <c r="E158" s="6">
-        <v>-0.0525618182</v>
+        <v>0.0662758065</v>
       </c>
       <c r="F158" s="7">
-        <v>7890.9612625538</v>
+        <v>8895.2654232425</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,10 +4430,10 @@
         <v>800.005</v>
       </c>
       <c r="E161" s="6">
-        <v>0.9988571357</v>
+        <v>0.9989999938</v>
       </c>
       <c r="F161" s="7">
-        <v>24.2248062016</v>
+        <v>27.6854928018</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4457,10 +4450,10 @@
         <v>18358615</v>
       </c>
       <c r="E162" s="6">
-        <v>-0.043103125</v>
+        <v>0.0337571053</v>
       </c>
       <c r="F162" s="7">
-        <v>27.6010457033</v>
+        <v>29.7965834296</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,10 +4470,10 @@
         <v>63212384</v>
       </c>
       <c r="E163" s="6">
-        <v>-0.0431086469</v>
+        <v>-0.0033711746</v>
       </c>
       <c r="F163" s="7">
-        <v>49.7092093283</v>
+        <v>51.6778908858</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,10 +4490,10 @@
         <v>11483374</v>
       </c>
       <c r="E164" s="6">
-        <v>-0.0535205505</v>
+        <v>0.0350105882</v>
       </c>
       <c r="F164" s="7">
-        <v>16.9168235482</v>
+        <v>18.4688257086</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,10 +4510,10 @@
         <v>47911579</v>
       </c>
       <c r="E165" s="6">
-        <v>-0.0107928059</v>
+        <v>0.0182053484</v>
       </c>
       <c r="F165" s="7">
-        <v>93.792666759</v>
+        <v>96.5629143004</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4537,10 +4530,10 @@
         <v>22971617</v>
       </c>
       <c r="E166" s="6">
-        <v>-0.0255186161</v>
+        <v>-0.0489322831</v>
       </c>
       <c r="F166" s="7">
-        <v>341.411370218</v>
+        <v>333.7905807042</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4557,10 +4550,10 @@
         <v>50042791</v>
       </c>
       <c r="E167" s="6">
-        <v>-0.0670104691</v>
+        <v>0.0070874802</v>
       </c>
       <c r="F167" s="7">
-        <v>25.1949519845</v>
+        <v>27.0751722819</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,10 +4570,10 @@
         <v>628.886</v>
       </c>
       <c r="E168" s="6">
-        <v>0.9989518567</v>
+        <v>0.9991015914</v>
       </c>
       <c r="F168" s="7">
-        <v>3.6625564644</v>
+        <v>4.2729825418</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4597,10 +4590,10 @@
         <v>10551494</v>
       </c>
       <c r="E169" s="6">
-        <v>-0.0049041905</v>
+        <v>0.0045760377</v>
       </c>
       <c r="F169" s="7">
-        <v>23.318047058</v>
+        <v>23.5401236967</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,10 +4610,10 @@
         <v>8870561</v>
       </c>
       <c r="E170" s="6">
-        <v>-0.0080182955</v>
+        <v>0.0143821111</v>
       </c>
       <c r="F170" s="7">
-        <v>213.1937883083</v>
+        <v>218.0391016789</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4637,10 +4630,10 @@
         <v>23594623</v>
       </c>
       <c r="E171" s="6">
-        <v>-0.06763</v>
+        <v>0.0447521053</v>
       </c>
       <c r="F171" s="7">
-        <v>119.3433416136</v>
+        <v>133.3837347446</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4677,10 +4670,10 @@
         <v>23317145</v>
       </c>
       <c r="E173" s="6">
-        <v>-0.0050493534</v>
+        <v>0.0077810638</v>
       </c>
       <c r="F173" s="7">
-        <v>644.802668149</v>
+        <v>653.1406336854</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,10 +4690,10 @@
         <v>10389799</v>
       </c>
       <c r="E174" s="6">
-        <v>-0.0389799</v>
+        <v>-0.0087183495</v>
       </c>
       <c r="F174" s="7">
-        <v>69.8812019567</v>
+        <v>71.9776380154</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,10 +4710,10 @@
         <v>66617606</v>
       </c>
       <c r="E175" s="6">
-        <v>-0.017062687</v>
+        <v>0.0288978717</v>
       </c>
       <c r="F175" s="7">
-        <v>69.1438826137</v>
+        <v>72.4163411802</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,10 +4730,10 @@
         <v>71702435</v>
       </c>
       <c r="E176" s="6">
-        <v>-0.0733897455</v>
+        <v>-0.0000339609</v>
       </c>
       <c r="F176" s="7">
-        <v>130.18397256</v>
+        <v>139.7333956969</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,10 +4770,10 @@
         <v>9304337</v>
       </c>
       <c r="E178" s="6">
-        <v>-0.0573110227</v>
+        <v>-0.0946278824</v>
       </c>
       <c r="F178" s="7">
-        <v>154.9705027736</v>
+        <v>149.6874174518</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,10 +4830,10 @@
         <v>12200431</v>
       </c>
       <c r="E181" s="6">
-        <v>-0.0339348305</v>
+        <v>-0.0252463025</v>
       </c>
       <c r="F181" s="7">
-        <v>72.1227308844</v>
+        <v>72.7339404682</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,10 +4850,10 @@
         <v>87270501</v>
       </c>
       <c r="E182" s="6">
-        <v>-0.0243016549</v>
+        <v>-0.021902822</v>
       </c>
       <c r="F182" s="7">
-        <v>108.7342163096</v>
+        <v>108.9894609488</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,10 +4870,10 @@
         <v>7364438</v>
       </c>
       <c r="E183" s="6">
-        <v>-0.1506934375</v>
+        <v>0.0180749333</v>
       </c>
       <c r="F183" s="7">
-        <v>13.1120671993</v>
+        <v>15.3657037492</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,10 +4910,10 @@
         <v>48656601</v>
       </c>
       <c r="E185" s="6">
-        <v>-0.0308601907</v>
+        <v>0.02686798</v>
       </c>
       <c r="F185" s="7">
-        <v>195.8197462641</v>
+        <v>207.4361718899</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4937,10 +4930,10 @@
         <v>37732836</v>
       </c>
       <c r="E186" s="6">
-        <v>0.0796869268</v>
+        <v>0.0044106596</v>
       </c>
       <c r="F186" s="7">
-        <v>67.9314058487</v>
+        <v>62.7951288211</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,10 +4950,10 @@
         <v>10642081</v>
       </c>
       <c r="E187" s="6">
-        <v>-0.1321362766</v>
+        <v>-0.0971217526</v>
       </c>
       <c r="F187" s="7">
-        <v>112.4401913876</v>
+        <v>116.028708134</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4977,10 +4970,10 @@
         <v>68682962</v>
       </c>
       <c r="E188" s="6">
-        <v>-0.0160201479</v>
+        <v>0.0074716474</v>
       </c>
       <c r="F188" s="7">
-        <v>277.4927137638</v>
+        <v>284.0605886458</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,10 +4990,10 @@
         <v>343477335</v>
       </c>
       <c r="E189" s="6">
-        <v>-0.0320833383</v>
+        <v>-0.0204317736</v>
       </c>
       <c r="F189" s="7">
-        <v>33.8669997736</v>
+        <v>34.253702295</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,10 +5010,10 @@
         <v>3388081</v>
       </c>
       <c r="E190" s="6">
-        <v>0.0588663889</v>
+        <v>0.0035055882</v>
       </c>
       <c r="F190" s="7">
-        <v>20.4295888545</v>
+        <v>19.2946116959</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,10 +5030,10 @@
         <v>35652307</v>
       </c>
       <c r="E191" s="6">
-        <v>-0.0014692978</v>
+        <v>0.0416046505</v>
       </c>
       <c r="F191" s="7">
-        <v>79.5708538221</v>
+        <v>83.1470719714</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,10 +5070,10 @@
         <v>496</v>
       </c>
       <c r="E193" s="6">
-        <v>0.3987878788</v>
+        <v>0.4376417234</v>
       </c>
       <c r="F193" s="7">
-        <v>18.75</v>
+        <v>20.0454545455</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,10 +5090,10 @@
         <v>28300854</v>
       </c>
       <c r="E194" s="6">
-        <v>-0.0000301767</v>
+        <v>0.0034910563</v>
       </c>
       <c r="F194" s="7">
-        <v>31.029000603</v>
+        <v>31.1386437147</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,10 +5110,10 @@
         <v>100352192</v>
       </c>
       <c r="E195" s="6">
-        <v>-0.0095793964</v>
+        <v>0.0073967161</v>
       </c>
       <c r="F195" s="7">
-        <v>300.1117116029</v>
+        <v>305.2444068718</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,10 +5130,10 @@
         <v>39390799</v>
       </c>
       <c r="E196" s="6">
-        <v>-0.1688664392</v>
+        <v>0.0297832759</v>
       </c>
       <c r="F196" s="7">
-        <v>63.8296260379</v>
+        <v>76.8985999151</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5157,10 +5150,10 @@
         <v>20723965</v>
       </c>
       <c r="E197" s="6">
-        <v>-0.03619825</v>
+        <v>0.0270438967</v>
       </c>
       <c r="F197" s="7">
-        <v>26.5739060187</v>
+        <v>28.3012099099</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,10 +5170,10 @@
         <v>16340822</v>
       </c>
       <c r="E198" s="6">
-        <v>-0.0025044172</v>
+        <v>0.0156131325</v>
       </c>
       <c r="F198" s="7">
-        <v>41.7139040375</v>
+        <v>42.4816446027</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,10 +5190,10 @@
         <v>4767308287.3280000687</v>
       </c>
       <c r="E199" s="6">
-        <v>-114.9929023681</v>
+        <v>-110.9086452424</v>
       </c>
       <c r="F199" s="7">
-        <v>1.2882731535</v>
+        <v>1.3352904219</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5217,10 +5210,10 @@
         <v>1477264796.5399999619</v>
       </c>
       <c r="E200" s="6">
-        <v>-13.2730898216</v>
+        <v>-12.897128848</v>
       </c>
       <c r="F200" s="7">
-        <v>3.4446830169</v>
+        <v>3.5378725092</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,10 +5270,10 @@
         <v>42016284.2240000069</v>
       </c>
       <c r="E203" s="6">
-        <v>-0.6285381482</v>
+        <v>-0.5390580302</v>
       </c>
       <c r="F203" s="7">
-        <v>3.0221718475</v>
+        <v>3.197879513</v>
       </c>
     </row>
   </sheetData>
@@ -5364,33 +5357,33 @@
         <v>3</v>
       </c>
       <c r="C2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>7</v>
       </c>
-      <c r="G2" s="12">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="G2" s="13">
+        <v>12</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5398,37 +5391,37 @@
       <c r="A3" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5436,37 +5429,37 @@
       <c r="A4" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
         <v>7</v>
       </c>
       <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>4</v>
       </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5474,37 +5467,37 @@
       <c r="A5" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="17">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>7</v>
       </c>
       <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5512,37 +5505,37 @@
       <c r="A6" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
-        <v>9</v>
-      </c>
-      <c r="F6" s="18">
-        <v>8</v>
+      <c r="E6" s="18">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7</v>
       </c>
       <c r="G6" s="16">
-        <v>5</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5553,34 +5546,34 @@
       <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>4</v>
       </c>
       <c r="D7" s="19">
         <v>6</v>
       </c>
-      <c r="E7" s="20">
-        <v>11</v>
+      <c r="E7" s="18">
+        <v>10</v>
       </c>
       <c r="F7" s="19">
         <v>6</v>
       </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5588,37 +5581,37 @@
       <c r="A8" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5626,37 +5619,37 @@
       <c r="A9" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <v>2</v>
       </c>
       <c r="G9" s="9">
         <v>3</v>
       </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5664,37 +5657,37 @@
       <c r="A10" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5702,37 +5695,37 @@
       <c r="A11" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5740,37 +5733,37 @@
       <c r="A12" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="14">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <v>0</v>
       </c>
     </row>
